--- a/LivestockFarmAppWeb/Reporte_05-03-2022.xlsx
+++ b/LivestockFarmAppWeb/Reporte_05-03-2022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Año</t>
   </si>
@@ -84,6 +84,54 @@
   </si>
   <si>
     <t>Días</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Vaca1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>especifacion</t>
+  </si>
+  <si>
+    <t>Medicina1</t>
+  </si>
+  <si>
+    <t>12332</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Pepa</t>
+  </si>
+  <si>
+    <t>Pepe</t>
   </si>
 </sst>
 </file>
@@ -289,6 +337,124 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
